--- a/regionseng/10/standard of living/expenditures.xlsx
+++ b/regionseng/10/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -403,18 +403,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -438,6 +426,18 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -763,23 +763,25 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="14">
         <v>2011</v>
@@ -814,8 +816,14 @@
       <c r="L2" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="15">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -849,11 +857,17 @@
       <c r="K3" s="23">
         <v>303.63546128715814</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="23">
         <v>331.90081662816209</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="27">
+        <v>433.11228682828579</v>
+      </c>
+      <c r="N3" s="27">
+        <v>552.94688630101189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -887,11 +901,17 @@
       <c r="K4" s="24">
         <v>300.17159950208639</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="24">
         <v>328.25788199716686</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="28">
+        <v>429.62056094951356</v>
+      </c>
+      <c r="N4" s="28">
+        <v>548.0670393540729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -925,11 +945,17 @@
       <c r="K5" s="25">
         <v>116.12440429021753</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="25">
         <v>134.35714308069825</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="29">
+        <v>168.65017777382548</v>
+      </c>
+      <c r="N5" s="29">
+        <v>201.7385331083338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -963,11 +989,17 @@
       <c r="K6" s="25">
         <v>12.458409254069009</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="25">
         <v>13.055543344758098</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="29">
+        <v>17.50639141931152</v>
+      </c>
+      <c r="N6" s="29">
+        <v>29.061359606831868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
@@ -1001,11 +1033,17 @@
       <c r="K7" s="25">
         <v>9.36827761223668</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="25">
         <v>9.3473467275892776</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="29">
+        <v>12.847321099715538</v>
+      </c>
+      <c r="N7" s="29">
+        <v>22.861745280705705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1039,11 +1077,17 @@
       <c r="K8" s="25">
         <v>31.295513431318156</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="25">
         <v>31.378616139813229</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="29">
+        <v>45.879505112584425</v>
+      </c>
+      <c r="N8" s="29">
+        <v>47.030985863665464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1077,11 +1121,17 @@
       <c r="K9" s="25">
         <v>48.338598150805446</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="25">
         <v>48.573060849098297</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="29">
+        <v>57.366551399449719</v>
+      </c>
+      <c r="N9" s="29">
+        <v>70.042896103859661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1115,11 +1165,17 @@
       <c r="K10" s="25">
         <v>29.186381279219606</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="25">
         <v>36.881619631596649</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="29">
+        <v>49.999595128685542</v>
+      </c>
+      <c r="N10" s="29">
+        <v>61.075613075888434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1153,11 +1209,17 @@
       <c r="K11" s="25">
         <v>8.5851427788747152</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="25">
         <v>8.4675479232076007</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="29">
+        <v>12.600126262049354</v>
+      </c>
+      <c r="N11" s="29">
+        <v>23.314315708613083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -1191,11 +1253,17 @@
       <c r="K12" s="25">
         <v>44.81487270534538</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="25">
         <v>46.197004300405482</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="29">
+        <v>64.770892753891971</v>
+      </c>
+      <c r="N12" s="29">
+        <v>92.941590606174969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1229,11 +1297,17 @@
       <c r="K13" s="24">
         <v>3.4638617850716558</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="24">
         <v>3.6429346309951698</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="28">
+        <v>3.4917258787721575</v>
+      </c>
+      <c r="N13" s="28">
+        <v>4.8798469469388852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1267,11 +1341,17 @@
       <c r="K14" s="24">
         <v>82.703058810963938</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="24">
         <v>90.783131857029701</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="28">
+        <v>75.507164496810915</v>
+      </c>
+      <c r="N14" s="28">
+        <v>135.67059854537962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -1305,11 +1385,17 @@
       <c r="K15" s="25">
         <v>0.22956938237508143</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="25">
         <v>0.18174807286580405</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="29">
+        <v>0.23673215140279136</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.22124567459106448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
@@ -1343,11 +1429,17 @@
       <c r="K16" s="25">
         <v>7.8342566684468586</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="25">
         <v>10.689876462584939</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="29">
+        <v>9.3469068877919508</v>
+      </c>
+      <c r="N16" s="29">
+        <v>17.239538731180826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1381,11 +1473,17 @@
       <c r="K17" s="25">
         <v>71.747111755706797</v>
       </c>
-      <c r="L17" s="33">
+      <c r="L17" s="25">
         <v>68.620374483647666</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="29">
+        <v>58.948013126480106</v>
+      </c>
+      <c r="N17" s="29">
+        <v>107.30443034118652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>10</v>
       </c>
@@ -1419,11 +1517,17 @@
       <c r="K18" s="25">
         <v>2.892121004435221</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="25">
         <v>11.291132837931315</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="29">
+        <v>6.9755123311360672</v>
+      </c>
+      <c r="N18" s="29">
+        <v>10.905383798421223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -1457,11 +1561,17 @@
       <c r="K19" s="24">
         <v>382.87465831305036</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="24">
         <v>419.04101385419665</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="28">
+        <v>505.12772544632458</v>
+      </c>
+      <c r="N19" s="28">
+        <v>683.73763789945269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1495,11 +1605,17 @@
       <c r="K20" s="26">
         <v>386.33852009812205</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="26">
         <v>422.68394848519182</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+      <c r="M20" s="30">
+        <v>508.61945132509669</v>
+      </c>
+      <c r="N20" s="30">
+        <v>688.61748484639145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1509,7 +1625,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1519,23 +1635,25 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="12">
         <v>2011</v>
@@ -1570,8 +1688,14 @@
       <c r="L24" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>11</v>
       </c>
@@ -1605,11 +1729,17 @@
       <c r="K25" s="23">
         <v>854.01317231241444</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="23">
         <v>883.22622685138936</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="27">
+        <v>1139.1176551322824</v>
+      </c>
+      <c r="N25" s="27">
+        <v>1401.3987382596031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>12</v>
       </c>
@@ -1643,11 +1773,17 @@
       <c r="K26" s="24">
         <v>844.27062254902194</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="24">
         <v>873.53195902316406</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="28">
+        <v>1129.9341553416871</v>
+      </c>
+      <c r="N26" s="28">
+        <v>1389.0311645852353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
@@ -1681,11 +1817,17 @@
       <c r="K27" s="25">
         <v>326.61458734224721</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="25">
         <v>357.53980282201076</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="29">
+        <v>443.5625607627444</v>
+      </c>
+      <c r="N27" s="29">
+        <v>511.28984132204306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
@@ -1719,11 +1861,17 @@
       <c r="K28" s="25">
         <v>35.040853146502378</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="25">
         <v>34.742301646108835</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="29">
+        <v>46.043116646331264</v>
+      </c>
+      <c r="N28" s="29">
+        <v>73.653643223432766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>2</v>
       </c>
@@ -1757,11 +1905,17 @@
       <c r="K29" s="25">
         <v>26.349466721751433</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="25">
         <v>24.874364170455149</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="29">
+        <v>33.789413810007154</v>
+      </c>
+      <c r="N29" s="29">
+        <v>57.94122687825827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
@@ -1795,11 +1949,17 @@
       <c r="K30" s="25">
         <v>88.022593248254992</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="25">
         <v>83.502104690614871</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="29">
+        <v>120.66652429834411</v>
+      </c>
+      <c r="N30" s="29">
+        <v>119.19619385028335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -1833,11 +1993,17 @@
       <c r="K31" s="25">
         <v>135.95842651877476</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="25">
         <v>129.25849865695042</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="29">
+        <v>150.8783137779572</v>
+      </c>
+      <c r="N31" s="29">
+        <v>177.51800155822266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -1871,11 +2037,17 @@
       <c r="K32" s="25">
         <v>82.090392073846331</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="25">
         <v>98.14622958242893</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="29">
+        <v>131.50266869046973</v>
+      </c>
+      <c r="N32" s="29">
+        <v>154.79115485314045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>5</v>
       </c>
@@ -1909,11 +2081,17 @@
       <c r="K33" s="25">
         <v>24.146800865291102</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="25">
         <v>22.533118414338333</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="29">
+        <v>33.139272928747076</v>
+      </c>
+      <c r="N33" s="29">
+        <v>59.08822967790465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>6</v>
       </c>
@@ -1947,11 +2125,17 @@
       <c r="K34" s="25">
         <v>126.04750263235384</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="25">
         <v>122.93553904025686</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="29">
+        <v>170.3522844270864</v>
+      </c>
+      <c r="N34" s="29">
+        <v>235.55287322194994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>13</v>
       </c>
@@ -1985,11 +2169,17 @@
       <c r="K35" s="24">
         <v>9.7425497633925406</v>
       </c>
-      <c r="L35" s="32">
+      <c r="L35" s="24">
         <v>9.6942678282253798</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="28">
+        <v>9.1834997905949169</v>
+      </c>
+      <c r="N35" s="28">
+        <v>12.367573674367964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>14</v>
       </c>
@@ -2023,11 +2213,17 @@
       <c r="K36" s="24">
         <v>232.61282234848989</v>
       </c>
-      <c r="L36" s="32">
+      <c r="L36" s="24">
         <v>241.58434988626965</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="28">
+        <v>198.58948079530103</v>
+      </c>
+      <c r="N36" s="28">
+        <v>343.84605525551041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>7</v>
       </c>
@@ -2061,11 +2257,17 @@
       <c r="K37" s="25">
         <v>0.64569294929135101</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="25">
         <v>0.48365251482528249</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="29">
+        <v>0.62262323513182016</v>
+      </c>
+      <c r="N37" s="29">
+        <v>0.56072909875927279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>8</v>
       </c>
@@ -2099,11 +2301,17 @@
       <c r="K38" s="25">
         <v>22.034838624473132</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="25">
         <v>28.446990126372736</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="29">
+        <v>24.583063054460531</v>
+      </c>
+      <c r="N38" s="29">
+        <v>43.692203400712351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
@@ -2137,11 +2345,17 @@
       <c r="K39" s="25">
         <v>201.79783433396997</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="25">
         <v>182.60670478621205</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="29">
+        <v>155.03767620881462</v>
+      </c>
+      <c r="N39" s="29">
+        <v>271.95431788351328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>10</v>
       </c>
@@ -2175,11 +2389,17 @@
       <c r="K40" s="25">
         <v>8.1344564407554962</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="25">
         <v>30.047002458859605</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="29">
+        <v>18.346118296894051</v>
+      </c>
+      <c r="N40" s="29">
+        <v>27.638804872525515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="16" t="s">
         <v>15</v>
       </c>
@@ -2213,11 +2433,17 @@
       <c r="K41" s="20">
         <v>1076.8834448975117</v>
       </c>
-      <c r="L41" s="32">
+      <c r="L41" s="20">
         <v>1115.1163089094339</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="28">
+        <v>1328.5236361369884</v>
+      </c>
+      <c r="N41" s="28">
+        <v>1732.8772198407453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>16</v>
       </c>
@@ -2251,11 +2477,17 @@
       <c r="K42" s="22">
         <v>1086.6259946609043</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="22">
         <v>1124.8105767376592</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
+      <c r="M42" s="30">
+        <v>1337.7071359275831</v>
+      </c>
+      <c r="N42" s="30">
+        <v>1745.2447935151133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2265,7 +2497,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2275,23 +2507,25 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+    </row>
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="12">
         <v>2011</v>
@@ -2326,8 +2560,14 @@
       <c r="L46" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>11</v>
       </c>
@@ -2361,11 +2601,17 @@
       <c r="K47" s="23">
         <v>256.27181630689603</v>
       </c>
-      <c r="L47" s="35">
+      <c r="L47" s="23">
         <v>275.95598475802069</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="31">
+        <v>360.39562138770088</v>
+      </c>
+      <c r="N47" s="31">
+        <v>442.31593232585521</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="16" t="s">
         <v>12</v>
       </c>
@@ -2399,11 +2645,17 @@
       <c r="K48" s="24">
         <v>253.34827718095431</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="24">
         <v>272.92709912972276</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="32">
+        <v>357.49013300497461</v>
+      </c>
+      <c r="N48" s="32">
+        <v>438.41242168963157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>0</v>
       </c>
@@ -2437,11 +2689,17 @@
       <c r="K49" s="25">
         <v>98.010330805419002</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="25">
         <v>111.71005273435769</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="33">
+        <v>140.33493730008536</v>
+      </c>
+      <c r="N49" s="33">
+        <v>161.37565753338393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>1</v>
       </c>
@@ -2475,11 +2733,17 @@
       <c r="K50" s="25">
         <v>10.515040484073856</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="25">
         <v>10.854915504139937</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="33">
+        <v>14.567185013433905</v>
+      </c>
+      <c r="N50" s="33">
+        <v>23.246902528275005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>2</v>
       </c>
@@ -2513,11 +2777,17 @@
       <c r="K51" s="25">
         <v>7.9069338909811497</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="25">
         <v>7.771768377347497</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="33">
+        <v>10.690341538925187</v>
+      </c>
+      <c r="N51" s="33">
+        <v>18.287677223534914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>3</v>
       </c>
@@ -2551,11 +2821,17 @@
       <c r="K52" s="25">
         <v>26.413772736893325</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="25">
         <v>26.089471563148145</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="33">
+        <v>38.17664207842143</v>
+      </c>
+      <c r="N52" s="33">
+        <v>37.621252376791318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>17</v>
       </c>
@@ -2589,11 +2865,17 @@
       <c r="K53" s="25">
         <v>40.798331964659766</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="25">
         <v>40.385639829085122</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="33">
+        <v>47.735089876752824</v>
+      </c>
+      <c r="N53" s="33">
+        <v>56.029050276840309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="17" t="s">
         <v>4</v>
       </c>
@@ -2627,11 +2909,17 @@
       <c r="K54" s="25">
         <v>24.633640979033895</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="25">
         <v>30.664894917418568</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="33">
+        <v>41.60499644906232</v>
+      </c>
+      <c r="N54" s="33">
+        <v>48.855898114830111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>5</v>
       </c>
@@ -2665,11 +2953,17 @@
       <c r="K55" s="25">
         <v>7.245959098023536</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="25">
         <v>7.0402674792220372</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="33">
+        <v>10.48464906647899</v>
+      </c>
+      <c r="N55" s="33">
+        <v>18.649699536567685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>6</v>
       </c>
@@ -2703,11 +2997,17 @@
       <c r="K56" s="25">
         <v>37.824267221869896</v>
       </c>
-      <c r="L56" s="37">
+      <c r="L56" s="25">
         <v>38.41008872500376</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="33">
+        <v>53.896291681814603</v>
+      </c>
+      <c r="N56" s="33">
+        <v>74.34628409940828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="16" t="s">
         <v>13</v>
       </c>
@@ -2741,11 +3041,17 @@
       <c r="K57" s="24">
         <v>2.9235391259416912</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="24">
         <v>3.0288856282978753</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="32">
+        <v>2.9054883827263063</v>
+      </c>
+      <c r="N57" s="32">
+        <v>3.9035106362236536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>14</v>
       </c>
@@ -2779,11 +3085,17 @@
       <c r="K58" s="24">
         <v>69.802331406796611</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="24">
         <v>75.480828295431721</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="32">
+        <v>62.830014976786686</v>
+      </c>
+      <c r="N58" s="32">
+        <v>108.52627760731927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
@@ -2817,11 +3129,17 @@
       <c r="K59" s="25">
         <v>0.19375919512271633</v>
       </c>
-      <c r="L59" s="37">
+      <c r="L59" s="25">
         <v>0.15111282019454905</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="33">
+        <v>0.1969864014527061</v>
+      </c>
+      <c r="N59" s="33">
+        <v>0.17697990395507246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>8</v>
       </c>
@@ -2855,11 +3173,17 @@
       <c r="K60" s="25">
         <v>6.6122025975699232</v>
       </c>
-      <c r="L60" s="37">
+      <c r="L60" s="25">
         <v>8.8880027959651269</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="33">
+        <v>7.7776235362592949</v>
+      </c>
+      <c r="N60" s="33">
+        <v>13.790334724118303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>9</v>
       </c>
@@ -2893,11 +3217,17 @@
       <c r="K61" s="25">
         <v>60.555386272948752</v>
       </c>
-      <c r="L61" s="37">
+      <c r="L61" s="25">
         <v>57.053800612711086</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="33">
+        <v>49.051034723267755</v>
+      </c>
+      <c r="N61" s="33">
+        <v>85.835475928910839</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>10</v>
       </c>
@@ -2931,11 +3261,17 @@
       <c r="K62" s="25">
         <v>2.4409833411552366</v>
       </c>
-      <c r="L62" s="37">
+      <c r="L62" s="25">
         <v>9.387912066560963</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="33">
+        <v>5.804370315806918</v>
+      </c>
+      <c r="N62" s="33">
+        <v>8.7234870503350415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="16" t="s">
         <v>15</v>
       </c>
@@ -2969,11 +3305,17 @@
       <c r="K63" s="24">
         <v>323.15060858775098</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="24">
         <v>348.40792742515447</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="32">
+        <v>420.32014798176129</v>
+      </c>
+      <c r="N63" s="32">
+        <v>546.93869929695074</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="19" t="s">
         <v>16</v>
       </c>
@@ -3007,66 +3349,78 @@
       <c r="K64" s="26">
         <v>326.07414771369275</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="26">
         <v>351.43681305345228</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="28" t="s">
+      <c r="M64" s="34">
+        <v>423.22563636448774</v>
+      </c>
+      <c r="N64" s="34">
+        <v>550.84220993317433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="30" t="s">
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="29" t="s">
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
